--- a/Experiments/Measurements/Single Banner Horizontal/V path/Antenna_1/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Horizontal/V path/Antenna_1/Transformed_Coordinates.xlsx
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>207.2157430981984</v>
+        <v>207.2157430981983</v>
       </c>
       <c r="H12" t="n">
-        <v>28.44699034415777</v>
+        <v>28.4469903441577</v>
       </c>
     </row>
     <row r="13">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>174.3894744973997</v>
+        <v>174.3894744973996</v>
       </c>
       <c r="H13" t="n">
-        <v>63.65056195746753</v>
+        <v>63.6505619574675</v>
       </c>
     </row>
     <row r="14">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>137.8581891868335</v>
+        <v>137.8581891868332</v>
       </c>
       <c r="H14" t="n">
-        <v>72.87871861314913</v>
+        <v>72.87871861314896</v>
       </c>
     </row>
     <row r="15">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>113.778203418684</v>
+        <v>113.7782034186836</v>
       </c>
       <c r="H15" t="n">
-        <v>59.20486149651807</v>
+        <v>59.2048614965179</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>123.7338448047107</v>
+        <v>123.7338448047103</v>
       </c>
       <c r="H16" t="n">
-        <v>47.70181481193055</v>
+        <v>47.70181481193035</v>
       </c>
     </row>
     <row r="17">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>137.394109675043</v>
+        <v>137.3941096750426</v>
       </c>
       <c r="H17" t="n">
-        <v>42.73053526959153</v>
+        <v>42.73053526959131</v>
       </c>
     </row>
     <row r="18">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>219.1701002180643</v>
+        <v>219.1701002180645</v>
       </c>
       <c r="H18" t="n">
-        <v>33.23032475703901</v>
+        <v>33.23032475703913</v>
       </c>
     </row>
     <row r="19">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>168.9135045244381</v>
+        <v>168.9135045244383</v>
       </c>
       <c r="H19" t="n">
-        <v>66.77848432390526</v>
+        <v>66.77848432390533</v>
       </c>
     </row>
     <row r="20">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>163.1676018025936</v>
+        <v>163.167601802594</v>
       </c>
       <c r="H24" t="n">
-        <v>40.43946441730226</v>
+        <v>40.43946441730249</v>
       </c>
     </row>
     <row r="25">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>164.0671327667932</v>
+        <v>164.067132766793</v>
       </c>
       <c r="H29" t="n">
-        <v>50.69295754184978</v>
+        <v>50.69295754184964</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>91.85067115787956</v>
+        <v>91.85067115787936</v>
       </c>
       <c r="H30" t="n">
-        <v>62.1646538112163</v>
+        <v>62.1646538112162</v>
       </c>
     </row>
     <row r="31">
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>105.2963233710519</v>
+        <v>105.2963233710516</v>
       </c>
       <c r="H32" t="n">
-        <v>60.60271109105511</v>
+        <v>60.60271109105494</v>
       </c>
     </row>
     <row r="33">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>185.3212022268784</v>
+        <v>185.3212022268781</v>
       </c>
       <c r="H34" t="n">
-        <v>34.06088861545998</v>
+        <v>34.06088861545979</v>
       </c>
     </row>
     <row r="35">
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>146.5784935838585</v>
+        <v>146.5784935838583</v>
       </c>
       <c r="H35" t="n">
-        <v>61.49289915366356</v>
+        <v>61.49289915366347</v>
       </c>
     </row>
     <row r="36">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>126.8655158018896</v>
+        <v>126.8655158018894</v>
       </c>
       <c r="H36" t="n">
-        <v>62.21108707560735</v>
+        <v>62.21108707560727</v>
       </c>
     </row>
     <row r="37">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>120.8399268752243</v>
+        <v>120.8399268752241</v>
       </c>
       <c r="H37" t="n">
-        <v>49.57415855560988</v>
+        <v>49.57415855560976</v>
       </c>
     </row>
     <row r="38">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>152.1483525606708</v>
+        <v>152.1483525606712</v>
       </c>
       <c r="H38" t="n">
-        <v>40.70070751389817</v>
+        <v>40.70070751389839</v>
       </c>
     </row>
     <row r="39">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>105.838983669305</v>
+        <v>105.8389836693052</v>
       </c>
       <c r="H40" t="n">
-        <v>56.50475442521153</v>
+        <v>56.50475442521161</v>
       </c>
     </row>
     <row r="41">
@@ -1672,7 +1672,7 @@
         <v>184.7621742903457</v>
       </c>
       <c r="H41" t="n">
-        <v>47.30916459812648</v>
+        <v>47.30916459812647</v>
       </c>
     </row>
     <row r="42">
@@ -1789,10 +1789,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>126.3242893240099</v>
+        <v>126.3242893240103</v>
       </c>
       <c r="H45" t="n">
-        <v>64.82989988218175</v>
+        <v>64.82989988218193</v>
       </c>
     </row>
     <row r="46">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>176.7266288258159</v>
+        <v>176.7266288258161</v>
       </c>
       <c r="H46" t="n">
-        <v>54.47671169219896</v>
+        <v>54.47671169219905</v>
       </c>
     </row>
     <row r="47">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>125.0717770140541</v>
+        <v>125.0717770140545</v>
       </c>
       <c r="H47" t="n">
-        <v>54.6496202346832</v>
+        <v>54.6496202346834</v>
       </c>
     </row>
     <row r="48">
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>71.53930671013893</v>
+        <v>71.53930671013872</v>
       </c>
       <c r="H48" t="n">
-        <v>62.03287769524859</v>
+        <v>62.03287769524855</v>
       </c>
     </row>
     <row r="49">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>150.0965712894924</v>
+        <v>150.0965712894922</v>
       </c>
       <c r="H50" t="n">
-        <v>42.65170136691333</v>
+        <v>42.65170136691325</v>
       </c>
     </row>
     <row r="51">
